--- a/Result/LSTM Multi/Service/IND.xlsx
+++ b/Result/LSTM Multi/Service/IND.xlsx
@@ -399,7 +399,7 @@
         <v>1980</v>
       </c>
       <c r="B2">
-        <v>16.75237579755089</v>
+        <v>33.80725873570828</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -407,7 +407,7 @@
         <v>1981</v>
       </c>
       <c r="B3">
-        <v>16.77044375204378</v>
+        <v>33.87161863576137</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -415,7 +415,7 @@
         <v>1982</v>
       </c>
       <c r="B4">
-        <v>16.36999593737045</v>
+        <v>34.89683727774281</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -423,7 +423,7 @@
         <v>1983</v>
       </c>
       <c r="B5">
-        <v>16.6644546925096</v>
+        <v>34.52160063054068</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -431,7 +431,7 @@
         <v>1984</v>
       </c>
       <c r="B6">
-        <v>16.70780360032094</v>
+        <v>35.42081608496181</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -439,7 +439,7 @@
         <v>1985</v>
       </c>
       <c r="B7">
-        <v>16.41801286266626</v>
+        <v>36.11499977204893</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -447,7 +447,7 @@
         <v>1986</v>
       </c>
       <c r="B8">
-        <v>16.22158380961347</v>
+        <v>36.98846783564461</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -455,7 +455,7 @@
         <v>1987</v>
       </c>
       <c r="B9">
-        <v>16.20954935388915</v>
+        <v>37.45227949228939</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -463,7 +463,7 @@
         <v>1988</v>
       </c>
       <c r="B10">
-        <v>16.1015348492608</v>
+        <v>36.79644550543219</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -471,7 +471,7 @@
         <v>1989</v>
       </c>
       <c r="B11">
-        <v>16.90284589656693</v>
+        <v>37.22939797954959</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -479,7 +479,7 @@
         <v>1990</v>
       </c>
       <c r="B12">
-        <v>16.59759644222204</v>
+        <v>37.04478519464807</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -487,7 +487,7 @@
         <v>1991</v>
       </c>
       <c r="B13">
-        <v>15.67626016051273</v>
+        <v>37.78569002371795</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -495,7 +495,7 @@
         <v>1992</v>
       </c>
       <c r="B14">
-        <v>15.80079981708075</v>
+        <v>37.91256818206074</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -503,7 +503,7 @@
         <v>1993</v>
       </c>
       <c r="B15">
-        <v>15.91571210784389</v>
+        <v>38.49068491702259</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -511,7 +511,7 @@
         <v>1994</v>
       </c>
       <c r="B16">
-        <v>16.76413813082256</v>
+        <v>37.49630233983369</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -519,7 +519,7 @@
         <v>1995</v>
       </c>
       <c r="B17">
-        <v>17.86585059655905</v>
+        <v>37.84966811833396</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -527,7 +527,7 @@
         <v>1996</v>
       </c>
       <c r="B18">
-        <v>17.59634080064139</v>
+        <v>37.70932947359798</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -535,7 +535,7 @@
         <v>1997</v>
       </c>
       <c r="B19">
-        <v>16.51857853000575</v>
+        <v>39.07955152360464</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -543,7 +543,7 @@
         <v>1998</v>
       </c>
       <c r="B20">
-        <v>15.71931601640516</v>
+        <v>40.13256872693889</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -551,7 +551,7 @@
         <v>1999</v>
       </c>
       <c r="B21">
-        <v>15.18053671327382</v>
+        <v>41.96573778685435</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -559,7 +559,7 @@
         <v>2000</v>
       </c>
       <c r="B22">
-        <v>15.92702301820897</v>
+        <v>42.73292664295458</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -567,7 +567,7 @@
         <v>2001</v>
       </c>
       <c r="B23">
-        <v>15.30702128315309</v>
+        <v>43.80896126298813</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -575,7 +575,7 @@
         <v>2002</v>
       </c>
       <c r="B24">
-        <v>15.5587017264204</v>
+        <v>44.72882755413038</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -583,7 +583,7 @@
         <v>2003</v>
       </c>
       <c r="B25">
-        <v>15.58738664870186</v>
+        <v>44.7046456533001</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -591,7 +591,7 @@
         <v>2004</v>
       </c>
       <c r="B26">
-        <v>15.82724574050271</v>
+        <v>44.11485897224708</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -599,7 +599,7 @@
         <v>2005</v>
       </c>
       <c r="B27">
-        <v>15.97301704470109</v>
+        <v>44.44293292274983</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -607,7 +607,7 @@
         <v>2006</v>
       </c>
       <c r="B28">
-        <v>17.30365333111118</v>
+        <v>44.04323571148997</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -615,7 +615,7 @@
         <v>2007</v>
       </c>
       <c r="B29">
-        <v>16.86456777544126</v>
+        <v>44.00815792391437</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -623,7 +623,7 @@
         <v>2008</v>
       </c>
       <c r="B30">
-        <v>17.09867414895781</v>
+        <v>45.88254990700625</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -631,7 +631,7 @@
         <v>2009</v>
       </c>
       <c r="B31">
-        <v>17.14357766689418</v>
+        <v>45.98488281191449</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -639,7 +639,7 @@
         <v>2010</v>
       </c>
       <c r="B32">
-        <v>17.02993424949175</v>
+        <v>45.03374956261907</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -647,7 +647,7 @@
         <v>2011</v>
       </c>
       <c r="B33">
-        <v>16.13933744469147</v>
+        <v>45.44214525076269</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -655,7 +655,7 @@
         <v>2012</v>
       </c>
       <c r="B34">
-        <v>15.81692300717572</v>
+        <v>46.30114729808293</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -663,7 +663,7 @@
         <v>2013</v>
       </c>
       <c r="B35">
-        <v>15.25302269276287</v>
+        <v>46.69871476936741</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -671,7 +671,7 @@
         <v>2014</v>
       </c>
       <c r="B36">
-        <v>15.06557011109184</v>
+        <v>47.82241375588313</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -679,7 +679,7 @@
         <v>2015</v>
       </c>
       <c r="B37">
-        <v>15.58385458634904</v>
+        <v>47.78374812041928</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -687,7 +687,7 @@
         <v>2016</v>
       </c>
       <c r="B38">
-        <v>15.16223713314817</v>
+        <v>47.74940128997481</v>
       </c>
     </row>
   </sheetData>
@@ -716,7 +716,7 @@
         <v>2017</v>
       </c>
       <c r="B2">
-        <v>16.02569007873535</v>
+        <v>53.4051399230957</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -724,7 +724,7 @@
         <v>2018</v>
       </c>
       <c r="B3">
-        <v>16.00126075744629</v>
+        <v>53.33663940429688</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -732,7 +732,7 @@
         <v>2019</v>
       </c>
       <c r="B4">
-        <v>16.03138542175293</v>
+        <v>52.91452026367188</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -740,7 +740,7 @@
         <v>2020</v>
       </c>
       <c r="B5">
-        <v>16.01784324645996</v>
+        <v>51.56077575683594</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -748,7 +748,7 @@
         <v>2021</v>
       </c>
       <c r="B6">
-        <v>16.04213905334473</v>
+        <v>50.54618453979492</v>
       </c>
     </row>
   </sheetData>
@@ -777,7 +777,7 @@
         <v>1980</v>
       </c>
       <c r="B2">
-        <v>16.75237579755089</v>
+        <v>33.80725873570828</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -785,7 +785,7 @@
         <v>1981</v>
       </c>
       <c r="B3">
-        <v>16.77044375204378</v>
+        <v>33.87161863576137</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -793,7 +793,7 @@
         <v>1982</v>
       </c>
       <c r="B4">
-        <v>16.36999593737045</v>
+        <v>34.89683727774281</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -801,7 +801,7 @@
         <v>1983</v>
       </c>
       <c r="B5">
-        <v>16.6644546925096</v>
+        <v>34.52160063054068</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -809,7 +809,7 @@
         <v>1984</v>
       </c>
       <c r="B6">
-        <v>16.70780360032094</v>
+        <v>35.42081608496181</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -817,7 +817,7 @@
         <v>1985</v>
       </c>
       <c r="B7">
-        <v>16.41801286266626</v>
+        <v>36.11499977204893</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -825,7 +825,7 @@
         <v>1986</v>
       </c>
       <c r="B8">
-        <v>16.22158380961347</v>
+        <v>36.98846783564461</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -833,7 +833,7 @@
         <v>1987</v>
       </c>
       <c r="B9">
-        <v>16.20954935388915</v>
+        <v>37.45227949228939</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -841,7 +841,7 @@
         <v>1988</v>
       </c>
       <c r="B10">
-        <v>16.1015348492608</v>
+        <v>36.79644550543219</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -849,7 +849,7 @@
         <v>1989</v>
       </c>
       <c r="B11">
-        <v>16.90284589656693</v>
+        <v>37.22939797954959</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -857,7 +857,7 @@
         <v>1990</v>
       </c>
       <c r="B12">
-        <v>16.59759644222204</v>
+        <v>37.04478519464807</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -865,7 +865,7 @@
         <v>1991</v>
       </c>
       <c r="B13">
-        <v>15.67626016051273</v>
+        <v>37.78569002371795</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -873,7 +873,7 @@
         <v>1992</v>
       </c>
       <c r="B14">
-        <v>15.80079981708075</v>
+        <v>37.91256818206074</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -881,7 +881,7 @@
         <v>1993</v>
       </c>
       <c r="B15">
-        <v>15.91571210784389</v>
+        <v>38.49068491702259</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -889,7 +889,7 @@
         <v>1994</v>
       </c>
       <c r="B16">
-        <v>16.76413813082256</v>
+        <v>37.49630233983369</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -897,7 +897,7 @@
         <v>1995</v>
       </c>
       <c r="B17">
-        <v>17.86585059655905</v>
+        <v>37.84966811833396</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -905,7 +905,7 @@
         <v>1996</v>
       </c>
       <c r="B18">
-        <v>17.59634080064139</v>
+        <v>37.70932947359798</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -913,7 +913,7 @@
         <v>1997</v>
       </c>
       <c r="B19">
-        <v>16.51857853000575</v>
+        <v>39.07955152360464</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -921,7 +921,7 @@
         <v>1998</v>
       </c>
       <c r="B20">
-        <v>15.71931601640516</v>
+        <v>40.13256872693889</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -929,7 +929,7 @@
         <v>1999</v>
       </c>
       <c r="B21">
-        <v>15.18053671327382</v>
+        <v>41.96573778685435</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -937,7 +937,7 @@
         <v>2000</v>
       </c>
       <c r="B22">
-        <v>15.92702301820897</v>
+        <v>42.73292664295458</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -945,7 +945,7 @@
         <v>2001</v>
       </c>
       <c r="B23">
-        <v>15.30702128315309</v>
+        <v>43.80896126298813</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -953,7 +953,7 @@
         <v>2002</v>
       </c>
       <c r="B24">
-        <v>15.5587017264204</v>
+        <v>44.72882755413038</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -961,7 +961,7 @@
         <v>2003</v>
       </c>
       <c r="B25">
-        <v>15.58738664870186</v>
+        <v>44.7046456533001</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -969,7 +969,7 @@
         <v>2004</v>
       </c>
       <c r="B26">
-        <v>15.82724574050271</v>
+        <v>44.11485897224708</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -977,7 +977,7 @@
         <v>2005</v>
       </c>
       <c r="B27">
-        <v>15.97301704470109</v>
+        <v>44.44293292274983</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -985,7 +985,7 @@
         <v>2006</v>
       </c>
       <c r="B28">
-        <v>17.30365333111118</v>
+        <v>44.04323571148997</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -993,7 +993,7 @@
         <v>2007</v>
       </c>
       <c r="B29">
-        <v>16.86456777544126</v>
+        <v>44.00815792391437</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1001,7 +1001,7 @@
         <v>2008</v>
       </c>
       <c r="B30">
-        <v>17.09867414895781</v>
+        <v>45.88254990700625</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1009,7 +1009,7 @@
         <v>2009</v>
       </c>
       <c r="B31">
-        <v>17.14357766689418</v>
+        <v>45.98488281191449</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1017,7 +1017,7 @@
         <v>2010</v>
       </c>
       <c r="B32">
-        <v>17.02993424949175</v>
+        <v>45.03374956261907</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1025,7 +1025,7 @@
         <v>2011</v>
       </c>
       <c r="B33">
-        <v>16.13933744469147</v>
+        <v>45.44214525076269</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1033,7 +1033,7 @@
         <v>2012</v>
       </c>
       <c r="B34">
-        <v>15.81692300717572</v>
+        <v>46.30114729808293</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1041,7 +1041,7 @@
         <v>2013</v>
       </c>
       <c r="B35">
-        <v>15.25302269276287</v>
+        <v>46.69871476936741</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1049,7 +1049,7 @@
         <v>2014</v>
       </c>
       <c r="B36">
-        <v>15.06557011109184</v>
+        <v>47.82241375588313</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1057,7 +1057,7 @@
         <v>2015</v>
       </c>
       <c r="B37">
-        <v>15.58385458634904</v>
+        <v>47.78374812041928</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1065,7 +1065,7 @@
         <v>2016</v>
       </c>
       <c r="B38">
-        <v>15.16223713314817</v>
+        <v>47.74940128997481</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1073,7 +1073,7 @@
         <v>2017</v>
       </c>
       <c r="B39">
-        <v>15.01823875014704</v>
+        <v>47.67088996844124</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1081,7 +1081,7 @@
         <v>2018</v>
       </c>
       <c r="B40">
-        <v>14.88153066744756</v>
+        <v>48.43156631546972</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1089,7 +1089,7 @@
         <v>2019</v>
       </c>
       <c r="B41">
-        <v>13.47361810745156</v>
+        <v>50.10766891732897</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1097,7 +1097,7 @@
         <v>2020</v>
       </c>
       <c r="B42">
-        <v>13.68338528944649</v>
+        <v>48.43685677249766</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1105,7 +1105,7 @@
         <v>2021</v>
       </c>
       <c r="B43">
-        <v>14.07022547391186</v>
+        <v>47.69042660210175</v>
       </c>
     </row>
   </sheetData>
@@ -1134,7 +1134,7 @@
         <v>2022</v>
       </c>
       <c r="B2">
-        <v>16.01446914672852</v>
+        <v>58.51618957519531</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1142,7 +1142,7 @@
         <v>2023</v>
       </c>
       <c r="B3">
-        <v>15.99492645263672</v>
+        <v>58.04952239990234</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1150,7 +1150,7 @@
         <v>2024</v>
       </c>
       <c r="B4">
-        <v>16.03535270690918</v>
+        <v>57.03245544433594</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1158,7 +1158,7 @@
         <v>2025</v>
       </c>
       <c r="B5">
-        <v>16.00971603393555</v>
+        <v>55.10858917236328</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1166,7 +1166,7 @@
         <v>2026</v>
       </c>
       <c r="B6">
-        <v>16.05018043518066</v>
+        <v>52.8856201171875</v>
       </c>
     </row>
   </sheetData>
